--- a/whowherewhen/whowhenwhere_test_result_bencana_evaluated.xlsx
+++ b/whowherewhen/whowhenwhere_test_result_bencana_evaluated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PetaKabar\whowherewhen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C243A1CF-1730-4822-80D1-9620A799EAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9EA0D2-D978-4593-AFA8-78BA11A63895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14018,8 +14018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W209" sqref="W209"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14399,7 +14399,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -19298,7 +19298,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>28</v>
+        <v>314</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -19866,7 +19866,7 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -26114,7 +26114,7 @@
         <v>0</v>
       </c>
       <c r="G171" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -26682,7 +26682,7 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="H209">
         <v>0</v>

--- a/whowherewhen/whowhenwhere_test_result_bencana_evaluated.xlsx
+++ b/whowherewhen/whowhenwhere_test_result_bencana_evaluated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PetaKabar\whowherewhen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9EA0D2-D978-4593-AFA8-78BA11A63895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F675A7-FC72-4E17-96A9-64CE2DD9B65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14018,8 +14018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="L10" zoomScale="165" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20955,13 +20955,13 @@
         <v>28</v>
       </c>
       <c r="O98" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="P98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R98" t="s">
         <v>28</v>
@@ -21431,7 +21431,7 @@
         <v>57</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>0</v>
